--- a/NFL_Data_Working/all_season_ranking.xlsx
+++ b/NFL_Data_Working/all_season_ranking.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23913"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="820" yWindow="0" windowWidth="25360" windowHeight="13400" tabRatio="500"/>
+    <workbookView xWindow="940" yWindow="620" windowWidth="25360" windowHeight="13400" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -654,10 +654,36 @@
   <dimension ref="A1:X33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:X33"/>
+      <selection activeCell="I37" sqref="I37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:24">
       <c r="A1" t="s">
